--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerceSource\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ecommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,10 +908,10 @@
   <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
       <c r="AB1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AD1" s="14" t="s">
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>14</v>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ecommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerceSource\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,10 +908,10 @@
   <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
       <c r="AB1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>138</v>
       </c>
       <c r="AD1" s="14" t="s">
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>14</v>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ecommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,9 +143,6 @@
     <t>This is a link to an alternate product that can be used as a replacement for the current product</t>
   </si>
   <si>
-    <t>This is the single restriction group the product belongs to, if restricted</t>
-  </si>
-  <si>
     <t>The relative path to the thumbnail image</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
   </si>
   <si>
     <t>Replacement Product</t>
-  </si>
-  <si>
-    <t>Restriction Group</t>
   </si>
   <si>
     <t>Track Inventory</t>
@@ -463,6 +457,12 @@
   </si>
   <si>
     <t>Relative path the the large image</t>
+  </si>
+  <si>
+    <t>Default Visibility</t>
+  </si>
+  <si>
+    <t>This is the default display behavior of the product.  Options: Hide, Show.   Default = Show</t>
   </si>
 </sst>
 </file>
@@ -908,10 +908,10 @@
   <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,148 +965,148 @@
   <sheetData>
     <row r="1" spans="1:48" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="AV1" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>14</v>
@@ -1290,7 +1290,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1338,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
@@ -1356,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>18</v>
@@ -1374,7 +1374,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>30</v>
@@ -1407,117 +1407,117 @@
         <v>38</v>
       </c>
       <c r="AA4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="AN4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AO4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>1</v>
@@ -1526,116 +1526,116 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="AD6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="AK6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="AK7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AO7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\ISC-6630\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>required</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Basic information</t>
   </si>
   <si>
-    <t>Alternate Name</t>
-  </si>
-  <si>
     <t>Selling Rules</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>This is the default unit of measure</t>
   </si>
   <si>
-    <t>Not a standard field - available for custom use</t>
-  </si>
-  <si>
     <t>This is typically displayed and searched on</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
   </si>
   <si>
     <t>Unit Of Measure</t>
-  </si>
-  <si>
-    <t>Model Number</t>
   </si>
   <si>
     <t>Rounding Rule</t>
@@ -905,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,195 +912,191 @@
     <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="10.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" style="3" customWidth="1"/>
-    <col min="31" max="32" width="14.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="3" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="3" customWidth="1"/>
-    <col min="39" max="40" width="15.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="19" style="3" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="15" style="3" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" style="3" customWidth="1"/>
-    <col min="46" max="46" width="21.85546875" style="3" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="23.7109375" style="3" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="10.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="3" customWidth="1"/>
+    <col min="20" max="21" width="14.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" style="3" customWidth="1"/>
+    <col min="30" max="31" width="14.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" style="3" customWidth="1"/>
+    <col min="38" max="39" width="15.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="19" style="3" customWidth="1"/>
+    <col min="41" max="41" width="14.140625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="15" style="3" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" style="3" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="21.85546875" style="3" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" style="3" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>134</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,145 +1104,142 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1263,13 +1247,11 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1280,7 +1262,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -1288,354 +1270,350 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="AA3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="7" t="s">
+      <c r="AF3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AM3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
     </row>
-    <row r="4" spans="1:48" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AN4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AU4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:47" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>71</v>
+      <c r="AF5" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>78</v>
+      <c r="AI5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="6" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>83</v>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>77</v>
       </c>
       <c r="AO6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AP6" s="3" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="7" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>84</v>
+      <c r="AC7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\ISC-6630\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Insite.Commerce.Source\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>required</t>
   </si>
@@ -454,12 +454,21 @@
   </si>
   <si>
     <t>This is the default display behavior of the product.  Options: Hide, Show.   Default = Show</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>This is the Name field for the branch in the brand table</t>
+  </si>
+  <si>
+    <t>BRAND1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,33 +936,33 @@
     <col min="19" max="19" width="16.140625" style="3" customWidth="1"/>
     <col min="20" max="21" width="14.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="18.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" style="3" customWidth="1"/>
-    <col min="30" max="31" width="14.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" style="3" customWidth="1"/>
-    <col min="38" max="39" width="15.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="19" style="3" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="15" style="3" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" style="3" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="3" customWidth="1"/>
-    <col min="46" max="46" width="12.140625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="24" width="11.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" style="3" customWidth="1"/>
+    <col min="31" max="32" width="14.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" style="3" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="3" customWidth="1"/>
+    <col min="39" max="40" width="15.28515625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="19" style="3" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="15" style="3" customWidth="1"/>
+    <col min="44" max="44" width="15.5703125" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" style="3" customWidth="1"/>
+    <col min="46" max="46" width="21.85546875" style="3" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="23.7109375" style="3" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1024,79 +1033,82 @@
         <v>2</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,26 +1191,26 @@
         <v>13</v>
       </c>
       <c r="AB2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AD2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AF2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AG2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AI2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +1250,11 @@
       <c r="AU2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="AV2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1270,45 +1285,46 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="13" t="s">
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
     </row>
-    <row r="4" spans="1:47" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1379,79 +1395,82 @@
         <v>34</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1485,44 +1504,47 @@
       <c r="W5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="X5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1541,35 +1563,35 @@
       <c r="O6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AH6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1588,31 +1610,31 @@
       <c r="O7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AH7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Insite.Commerce.Source\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Legacy\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6773BE-0341-46D5-9A25-DF527997C92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
   <si>
     <t>required</t>
   </si>
@@ -463,12 +464,18 @@
   </si>
   <si>
     <t>BRAND1</t>
+  </si>
+  <si>
+    <t>Is Stocked</t>
+  </si>
+  <si>
+    <t>Whether or not this item is regularly stocked at a local warehouse. Can be used as a facet on the storefront.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -618,6 +625,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,14 +914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,37 +942,37 @@
     <col min="15" max="15" width="10.85546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="14.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="3" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" style="3" customWidth="1"/>
-    <col min="31" max="32" width="14.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="3" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="3" customWidth="1"/>
-    <col min="39" max="40" width="15.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="19" style="3" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="15" style="3" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" style="3" customWidth="1"/>
-    <col min="46" max="46" width="21.85546875" style="3" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="23.7109375" style="3" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="3"/>
+    <col min="18" max="19" width="15.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="3" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="3" customWidth="1"/>
+    <col min="24" max="25" width="11.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" style="3" customWidth="1"/>
+    <col min="32" max="33" width="14.42578125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" style="3" customWidth="1"/>
+    <col min="40" max="41" width="15.28515625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="19" style="3" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" style="3" customWidth="1"/>
+    <col min="44" max="44" width="15" style="3" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" style="3" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" style="3" customWidth="1"/>
+    <col min="47" max="47" width="21.85546875" style="3" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="23.7109375" style="3" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1017,98 +1027,101 @@
       <c r="R1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1194,26 +1207,26 @@
         <v>13</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AE2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AG2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AH2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AJ2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1253,8 +1266,11 @@
       <c r="AV2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="AW2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1293,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -1286,45 +1302,46 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
     </row>
-    <row r="4" spans="1:48" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1379,98 +1396,101 @@
       <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1495,56 +1515,56 @@
       <c r="O5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="AH5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1563,35 +1583,35 @@
       <c r="O6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AI6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1610,31 +1630,31 @@
       <c r="O7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AI7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
